--- a/Qstore3_4/src/test/resources/DataTesting/QstoreData.xlsx
+++ b/Qstore3_4/src/test/resources/DataTesting/QstoreData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shvet\eclipse-workspace\Qstore3_2\src\test\resources\DataTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shvet\git\QstoreLocal\Qstore3_4\src\test\resources\DataTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C232E-B489-4164-8677-392C23A249E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE350A-9E45-47A9-A7C7-6AE046CAC69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="0" windowWidth="21825" windowHeight="15600" activeTab="1" xr2:uid="{B9E8F0BD-F72B-4C67-A5A5-1EFE8D6CA761}"/>
+    <workbookView xWindow="32985" yWindow="0" windowWidth="21825" windowHeight="15600" activeTab="5" xr2:uid="{B9E8F0BD-F72B-4C67-A5A5-1EFE8D6CA761}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Email" sheetId="3" r:id="rId3"/>
     <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
     <sheet name="SearchProduct" sheetId="5" r:id="rId5"/>
+    <sheet name="AccountCreationData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t xml:space="preserve">Page Classes </t>
   </si>
@@ -235,6 +236,75 @@
   </si>
   <si>
     <t>t-shirt</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>SetPassword</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>123jimmyq@gmail.com</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>hdhlssl</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>Ocean Pkwy</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B576B4-4F87-4C48-BB8B-F838F87CC341}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1087,4 +1157,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290E122-CF47-476D-960A-9A8DF11EE2DD}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1998</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="3">
+        <v>11245</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="3">
+        <v>8785654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{29DBF898-7E43-4C6F-870B-D97E3007A078}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Qstore3_4/src/test/resources/DataTesting/QstoreData.xlsx
+++ b/Qstore3_4/src/test/resources/DataTesting/QstoreData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shvet\git\QstoreLocal\Qstore3_4\src\test\resources\DataTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE350A-9E45-47A9-A7C7-6AE046CAC69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42458852-1647-43BA-9015-7DCB690A0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32985" yWindow="0" windowWidth="21825" windowHeight="15600" activeTab="5" xr2:uid="{B9E8F0BD-F72B-4C67-A5A5-1EFE8D6CA761}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Qstore3_4/src/test/resources/DataTesting/QstoreData.xlsx
+++ b/Qstore3_4/src/test/resources/DataTesting/QstoreData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shvet\git\QstoreLocal\Qstore3_4\src\test\resources\DataTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42458852-1647-43BA-9015-7DCB690A0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0D2983-EB5A-420F-BE13-A67E6A747DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="0" windowWidth="21825" windowHeight="15600" activeTab="5" xr2:uid="{B9E8F0BD-F72B-4C67-A5A5-1EFE8D6CA761}"/>
+    <workbookView xWindow="1950" yWindow="915" windowWidth="21825" windowHeight="15600" activeTab="5" xr2:uid="{B9E8F0BD-F72B-4C67-A5A5-1EFE8D6CA761}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
